--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/利益相关者分析.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/利益相关者分析.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRD\Git\workspace\person\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>利益相关者</t>
   </si>
@@ -119,14 +119,18 @@
   <si>
     <t>需求尽可能被满足、
 特殊权益和资源保障</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfx_1997</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +288,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -295,15 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,21 +626,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,16 +653,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24.6" customHeight="1" thickBot="1">
       <c r="E2" t="s">
         <v>13</v>
       </c>
@@ -672,7 +676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="47.45" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +692,7 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -698,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -710,7 +714,7 @@
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -720,19 +724,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.9" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15858262015</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
@@ -742,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -754,7 +762,7 @@
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
@@ -764,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="31.15" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -776,7 +784,7 @@
       <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
@@ -786,8 +794,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" ht="32.450000000000003" customHeight="1" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -796,18 +804,18 @@
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" ht="25.9" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
